--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -460,29 +460,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="15" customHeight="1" s="3"/>
     <row r="3" ht="15" customHeight="1" s="3"/>
     <row r="4" ht="15" customHeight="1" s="3"/>
     <row r="5" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.39" customWidth="1" style="2" min="1" max="2"/>
     <col width="12.78" customWidth="1" style="2" min="4" max="4"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="A2:B11"/>
@@ -460,19 +460,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3"/>
-    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="15" customHeight="1" s="3"/>
     <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="A2:B11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.39" customWidth="1" style="2" min="1" max="2"/>
     <col width="12.78" customWidth="1" style="2" min="4" max="4"/>
@@ -477,28 +477,60 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="15" customHeight="1" s="3"/>
-    <row r="7" ht="15" customHeight="1" s="3"/>
+      <c r="B3" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+    </row>
     <row r="8" ht="15" customHeight="1" s="3"/>
     <row r="9" ht="15" customHeight="1" s="3"/>
     <row r="10" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -460,77 +460,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="2" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="7" ht="15" customHeight="1" s="3"/>
     <row r="8" ht="15" customHeight="1" s="3"/>
     <row r="9" ht="15" customHeight="1" s="3"/>
     <row r="10" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -460,19 +460,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3"/>
-    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+    </row>
     <row r="4" ht="15" customHeight="1" s="3"/>
     <row r="5" ht="15" customHeight="1" s="3"/>
     <row r="6" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -478,30 +478,129 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="15" customHeight="1" s="3"/>
-    <row r="7" ht="15" customHeight="1" s="3"/>
-    <row r="8" ht="15" customHeight="1" s="3"/>
-    <row r="9" ht="15" customHeight="1" s="3"/>
-    <row r="10" ht="15" customHeight="1" s="3"/>
-    <row r="11" ht="15" customHeight="1" s="3"/>
-    <row r="12" ht="15" customHeight="1" s="3"/>
-    <row r="13" ht="15" customHeight="1" s="3"/>
-    <row r="14" ht="15" customHeight="1" s="3"/>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+    </row>
     <row r="15" ht="15" customHeight="1" s="3"/>
     <row r="16" ht="15" customHeight="1" s="3"/>
     <row r="17" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -460,147 +460,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="3">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="3">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="3">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>11.</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="2" ht="15" customHeight="1" s="3"/>
+    <row r="3" ht="15" customHeight="1" s="3"/>
+    <row r="4" ht="15" customHeight="1" s="3"/>
+    <row r="5" ht="15" customHeight="1" s="3"/>
+    <row r="6" ht="15" customHeight="1" s="3"/>
+    <row r="7" ht="15" customHeight="1" s="3"/>
+    <row r="8" ht="15" customHeight="1" s="3"/>
+    <row r="9" ht="15" customHeight="1" s="3"/>
+    <row r="10" ht="15" customHeight="1" s="3"/>
+    <row r="11" ht="15" customHeight="1" s="3"/>
+    <row r="12" ht="15" customHeight="1" s="3"/>
+    <row r="13" ht="15" customHeight="1" s="3"/>
+    <row r="14" ht="15" customHeight="1" s="3"/>
     <row r="15" ht="15" customHeight="1" s="3"/>
     <row r="16" ht="15" customHeight="1" s="3"/>
     <row r="17" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -460,34 +460,187 @@
   </cols>
   <sheetData>
     <row r="1" ht="39.55" customHeight="1" s="3">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Temperature(°C)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3"/>
-    <row r="3" ht="15" customHeight="1" s="3"/>
-    <row r="4" ht="15" customHeight="1" s="3"/>
-    <row r="5" ht="15" customHeight="1" s="3"/>
-    <row r="6" ht="15" customHeight="1" s="3"/>
-    <row r="7" ht="15" customHeight="1" s="3"/>
-    <row r="8" ht="15" customHeight="1" s="3"/>
-    <row r="9" ht="15" customHeight="1" s="3"/>
-    <row r="10" ht="15" customHeight="1" s="3"/>
-    <row r="11" ht="15" customHeight="1" s="3"/>
-    <row r="12" ht="15" customHeight="1" s="3"/>
-    <row r="13" ht="15" customHeight="1" s="3"/>
-    <row r="14" ht="15" customHeight="1" s="3"/>
-    <row r="15" ht="15" customHeight="1" s="3"/>
-    <row r="16" ht="15" customHeight="1" s="3"/>
-    <row r="17" ht="15" customHeight="1" s="3"/>
-    <row r="18" ht="15" customHeight="1" s="3"/>
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9.</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="3">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+    </row>
     <row r="19" ht="15" customHeight="1" s="3"/>
     <row r="20" ht="15" customHeight="1" s="3"/>
     <row r="21" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="3">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="3">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="3">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="3">
@@ -568,79 +568,25 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="3">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>12.</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>13.</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="3">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14.</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="3">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>15.</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="3">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>16.</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="3">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>17.</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="B12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="3"/>
+    <row r="14" ht="15" customHeight="1" s="3"/>
+    <row r="15" ht="15" customHeight="1" s="3"/>
+    <row r="16" ht="15" customHeight="1" s="3"/>
+    <row r="17" ht="15" customHeight="1" s="3"/>
+    <row r="18" ht="15" customHeight="1" s="3"/>
     <row r="19" ht="15" customHeight="1" s="3"/>
     <row r="20" ht="15" customHeight="1" s="3"/>
     <row r="21" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -572,17 +572,35 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="3">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>11.</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3"/>
-    <row r="14" ht="15" customHeight="1" s="3"/>
+    <row r="13" ht="15" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="3">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+    </row>
     <row r="15" ht="15" customHeight="1" s="3"/>
     <row r="16" ht="15" customHeight="1" s="3"/>
     <row r="17" ht="15" customHeight="1" s="3"/>

--- a/source_file.xlsx
+++ b/source_file.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
@@ -592,22 +592,85 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="3">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>13.</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="3"/>
-    <row r="16" ht="15" customHeight="1" s="3"/>
-    <row r="17" ht="15" customHeight="1" s="3"/>
-    <row r="18" ht="15" customHeight="1" s="3"/>
-    <row r="19" ht="15" customHeight="1" s="3"/>
-    <row r="20" ht="15" customHeight="1" s="3"/>
-    <row r="21" ht="15" customHeight="1" s="3"/>
+    <row r="15" ht="15" customHeight="1" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14.</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15.</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>16.</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="3">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17.</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="3">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18.</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="3">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19.</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="3">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20.</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
